--- a/Berechnungen/Getriebeberechnung Me3.xlsx
+++ b/Berechnungen/Getriebeberechnung Me3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marvi\Desktop\Maschinenelemente 3\Entwurf\Gruppe 9\Gruppe9_ME3E\Berechnungen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C55C6E8-E388-4E07-8C02-9E75594E0838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59482FED-46F3-4143-865A-1B991E7E81C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{81DD310D-B317-4A19-9C30-22399F1A8788}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{81DD310D-B317-4A19-9C30-22399F1A8788}"/>
   </bookViews>
   <sheets>
     <sheet name="1. Getriebe" sheetId="1" r:id="rId1"/>
@@ -310,7 +310,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -325,6 +325,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,7 +413,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -425,9 +431,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -443,6 +446,10 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Gut" xfId="1" builtinId="26"/>
@@ -799,10 +806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E76588-977C-4D6C-9224-F6E0C624C1AE}">
-  <dimension ref="A1:T33"/>
+  <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,7 +822,7 @@
     <col min="16" max="16" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="6"/>
       <c r="C1" s="7" t="s">
@@ -837,7 +844,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -860,14 +867,14 @@
       <c r="I2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="27">
+      <c r="J2" s="24">
         <f>ROUND((D3-C3)/C3,4)</f>
-        <v>1.3100000000000001E-2</v>
+        <v>2.3E-3</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
@@ -875,24 +882,24 @@
       <c r="C3" s="3">
         <v>650</v>
       </c>
-      <c r="D3" s="28">
+      <c r="D3" s="25">
         <f>D2*G8</f>
-        <v>658.5</v>
+        <v>651.5</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="3">
-        <v>4.0999999999999996</v>
+        <v>3.95</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="27">
+      <c r="J3" s="24">
         <f>ROUND((D6-C6)/C6,4)</f>
-        <v>-2.0299999999999999E-2</v>
+        <v>-9.7000000000000003E-3</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -900,7 +907,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -911,14 +918,14 @@
       </c>
       <c r="G4" s="3">
         <f>G2/G3</f>
-        <v>3.1707317073170733</v>
+        <v>3.2911392405063289</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="O4" s="17">
+      <c r="O4" s="29">
         <v>25</v>
       </c>
       <c r="P4" s="12">
@@ -933,11 +940,11 @@
       <c r="S4">
         <v>23</v>
       </c>
-      <c r="T4" s="29">
+      <c r="T4" s="28">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
         <v>12</v>
@@ -956,8 +963,8 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="O5" s="17">
-        <v>106</v>
+      <c r="O5" s="29">
+        <v>99</v>
       </c>
       <c r="P5" s="12">
         <v>107</v>
@@ -971,11 +978,11 @@
       <c r="S5">
         <v>96</v>
       </c>
-      <c r="T5" s="29">
+      <c r="T5" s="28">
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
         <v>13</v>
@@ -983,9 +990,9 @@
       <c r="C6" s="3">
         <v>155</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="25">
         <f>D5/G8</f>
-        <v>151.8602885345482</v>
+        <v>153.49194167306217</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1001,8 +1008,8 @@
         <v>16</v>
       </c>
       <c r="L6" s="1"/>
-      <c r="O6" s="17">
-        <v>39</v>
+      <c r="O6" s="29">
+        <v>24</v>
       </c>
       <c r="P6" s="12">
         <v>39</v>
@@ -1016,11 +1023,11 @@
       <c r="S6">
         <v>29</v>
       </c>
-      <c r="T6" s="29">
+      <c r="T6" s="28">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1042,8 +1049,8 @@
         <v>30</v>
       </c>
       <c r="L7" s="1"/>
-      <c r="O7" s="17">
-        <v>119</v>
+      <c r="O7" s="29">
+        <v>79</v>
       </c>
       <c r="P7" s="12">
         <v>119</v>
@@ -1057,11 +1064,11 @@
       <c r="S7">
         <v>90</v>
       </c>
-      <c r="T7" s="29">
+      <c r="T7" s="28">
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="9" t="s">
         <v>19</v>
@@ -1074,7 +1081,7 @@
       </c>
       <c r="G8" s="3">
         <f>ROUND(G9*G10,2)</f>
-        <v>13.17</v>
+        <v>13.03</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="4" t="s">
@@ -1082,23 +1089,23 @@
       </c>
       <c r="J8" s="3">
         <f>ROUND(((16*50*10^3*2*G9)/(PI()*50))^(1/3),2)</f>
-        <v>34.67</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="K8" s="5">
         <v>45</v>
       </c>
       <c r="L8" s="1"/>
-      <c r="O8" s="18"/>
+      <c r="O8" s="30"/>
       <c r="P8" s="13"/>
-      <c r="T8" s="29"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T8" s="28"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="8">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1107,7 +1114,7 @@
       </c>
       <c r="G9" s="3">
         <f>ROUND(C10/C9,2)</f>
-        <v>4.09</v>
+        <v>3.96</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="4" t="s">
@@ -1115,14 +1122,14 @@
       </c>
       <c r="J9" s="3">
         <f>ROUND(((16*50*10^3*2*G8)/(PI()*50))^(1/3),2)</f>
-        <v>51.19</v>
+        <v>51.01</v>
       </c>
       <c r="K9" s="5">
         <v>60</v>
       </c>
       <c r="L9" s="1"/>
-      <c r="O9" s="19">
-        <v>1.07</v>
+      <c r="O9" s="31">
+        <v>0.53</v>
       </c>
       <c r="P9" s="14">
         <v>0.53</v>
@@ -1136,18 +1143,18 @@
       <c r="S9">
         <v>0</v>
       </c>
-      <c r="T9" s="29">
+      <c r="T9" s="28">
         <v>0.8</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="8">
         <f>ROUND(C9*G3,0)</f>
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1156,28 +1163,28 @@
       </c>
       <c r="G10" s="3">
         <f>ROUND(C12/C11,2)</f>
-        <v>3.22</v>
+        <v>3.29</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="O10" t="s">
+      <c r="O10" s="26" t="s">
         <v>24</v>
       </c>
       <c r="P10" t="s">
         <v>25</v>
       </c>
-      <c r="T10" s="29"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T10" s="28"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1188,19 +1195,20 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="T11" s="29"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O11" s="26"/>
+      <c r="T11" s="28"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="8">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D12" s="11">
         <f>ROUND(C11*G4,0)</f>
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1213,8 +1221,8 @@
       <c r="N12" t="s">
         <v>56</v>
       </c>
-      <c r="O12">
-        <v>4.25</v>
+      <c r="O12" s="26">
+        <v>3.95</v>
       </c>
       <c r="P12">
         <v>4.28</v>
@@ -1228,11 +1236,14 @@
       <c r="S12">
         <v>4.18</v>
       </c>
-      <c r="T12" s="29">
+      <c r="T12" s="28">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="U12">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1256,8 +1267,8 @@
       <c r="N13" t="s">
         <v>57</v>
       </c>
-      <c r="O13">
-        <v>3</v>
+      <c r="O13" s="26">
+        <v>2.5</v>
       </c>
       <c r="P13">
         <v>3</v>
@@ -1271,11 +1282,11 @@
       <c r="S13">
         <v>2.5</v>
       </c>
-      <c r="T13" s="29">
+      <c r="T13" s="28">
         <v>2.5</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
         <v>55</v>
@@ -1299,14 +1310,14 @@
       </c>
       <c r="K14" s="3">
         <f>ROUND((1.8*K7*COS((20*PI())/180))/(C9-2.5),2)</f>
-        <v>2.48</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="L14" s="1"/>
       <c r="N14" t="s">
         <v>58</v>
       </c>
-      <c r="O14">
-        <v>2.5</v>
+      <c r="O14" s="26">
+        <v>3</v>
       </c>
       <c r="P14">
         <v>2.5</v>
@@ -1320,11 +1331,11 @@
       <c r="S14">
         <v>2.5</v>
       </c>
-      <c r="T14" s="29">
+      <c r="T14" s="28">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="4" t="s">
         <v>31</v>
@@ -1340,7 +1351,7 @@
       </c>
       <c r="G15" s="3">
         <f>ROUND((2*50*10^3*G9)/(K8^2*4),2)</f>
-        <v>50.49</v>
+        <v>48.89</v>
       </c>
       <c r="H15" s="5">
         <v>55</v>
@@ -1354,7 +1365,7 @@
       </c>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="4" t="s">
         <v>33</v>
@@ -1437,7 +1448,7 @@
       </c>
       <c r="C20" s="5">
         <f>ROUND(C9*K15/COS(RADIANS(20)),2)</f>
-        <v>61.19</v>
+        <v>66.510000000000005</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1446,7 +1457,7 @@
       </c>
       <c r="G20" s="5">
         <f>ROUND((C20+C21)/2,2)</f>
-        <v>155.63999999999999</v>
+        <v>164.95</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -1461,7 +1472,7 @@
       </c>
       <c r="C21" s="5">
         <f>ROUND(C10*K15/COS(RADIANS(20)),2)</f>
-        <v>250.08</v>
+        <v>263.38</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1470,7 +1481,7 @@
       </c>
       <c r="G21" s="5">
         <f>ROUND((C22+C23)/2,2)</f>
-        <v>154.84</v>
+        <v>164.42</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -1485,7 +1496,7 @@
       </c>
       <c r="C22" s="5">
         <f>ROUND(C11*K19/COS(RADIANS(20)),2)</f>
-        <v>73.430000000000007</v>
+        <v>76.62</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1504,14 +1515,14 @@
       </c>
       <c r="C23" s="5">
         <f>ROUND(C12*K19/COS(RADIANS(20)),2)</f>
-        <v>236.25</v>
+        <v>252.21</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="26">
+      <c r="G23" s="23">
         <f>G20-G21</f>
-        <v>0.79999999999998295</v>
+        <v>0.53000000000000114</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -1690,7 +1701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77410A73-11E5-46DB-9102-8D255C550964}">
   <dimension ref="B2:Q13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
@@ -1701,10 +1712,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="25"/>
+      <c r="C2" s="22"/>
       <c r="L2" s="7" t="s">
         <v>44</v>
       </c>
@@ -1722,10 +1733,10 @@
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="17">
         <v>295</v>
       </c>
       <c r="L3" s="6">
@@ -1745,10 +1756,10 @@
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="17">
         <v>1.1000000000000001</v>
       </c>
       <c r="L4" s="6">
@@ -1792,18 +1803,18 @@
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="L6" s="20">
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="L6" s="17">
         <v>30</v>
       </c>
-      <c r="M6" s="20">
+      <c r="M6" s="17">
         <v>8</v>
       </c>
-      <c r="N6" s="20">
+      <c r="N6" s="17">
         <v>7</v>
       </c>
-      <c r="O6" s="20">
+      <c r="O6" s="17">
         <v>4</v>
       </c>
       <c r="Q6" s="6">
@@ -1811,8 +1822,8 @@
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
       <c r="L7" s="6">
         <v>38</v>
       </c>
@@ -1825,7 +1836,7 @@
       <c r="O7" s="6">
         <v>5</v>
       </c>
-      <c r="Q7" s="30">
+      <c r="Q7" s="27">
         <v>40</v>
       </c>
     </row>
@@ -1873,7 +1884,7 @@
       <c r="B10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="19">
         <f>'1. Getriebe'!K7</f>
         <v>30</v>
       </c>
@@ -1881,7 +1892,7 @@
         <f>(2*'1. Getriebe'!D2*10^3)/('1. Getriebe'!K7*3*'2. Passfedern'!C5*1*1)</f>
         <v>4.143154266205948</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="20">
         <v>14</v>
       </c>
       <c r="F10" s="7" t="s">
@@ -1904,15 +1915,15 @@
       <c r="B11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="19">
         <f>'1. Getriebe'!K8</f>
         <v>45</v>
       </c>
       <c r="D11" s="3">
         <f>(2*'1. Getriebe'!D2*'1. Getriebe'!G9*10^3)/('1. Getriebe'!K8*3*'2. Passfedern'!C5*1*1)</f>
-        <v>11.29700063252155</v>
-      </c>
-      <c r="E11" s="23">
+        <v>10.937927262783701</v>
+      </c>
+      <c r="E11" s="20">
         <v>25</v>
       </c>
       <c r="F11" s="7" t="s">
@@ -1923,15 +1934,15 @@
       <c r="B12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="19">
         <f>'1. Getriebe'!K9</f>
         <v>60</v>
       </c>
       <c r="D12" s="3">
         <f>(2*'1. Getriebe'!D2*'1. Getriebe'!G9*'1. Getriebe'!G10*10^3)/('1. Getriebe'!K9*4*'2. Passfedern'!C5*1*1)</f>
-        <v>20.461692395654659</v>
-      </c>
-      <c r="E12" s="23">
+        <v>20.242001640689089</v>
+      </c>
+      <c r="E12" s="20">
         <v>40</v>
       </c>
       <c r="F12" s="7" t="s">

--- a/Berechnungen/Getriebeberechnung Me3.xlsx
+++ b/Berechnungen/Getriebeberechnung Me3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marvi\Desktop\Maschinenelemente 3\Entwurf\Gruppe 9\Gruppe9_ME3E\Berechnungen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59482FED-46F3-4143-865A-1B991E7E81C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F40327-E050-471B-9450-0B9950FAED3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{81DD310D-B317-4A19-9C30-22399F1A8788}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{81DD310D-B317-4A19-9C30-22399F1A8788}"/>
   </bookViews>
   <sheets>
     <sheet name="1. Getriebe" sheetId="1" r:id="rId1"/>
@@ -808,7 +808,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E76588-977C-4D6C-9224-F6E0C624C1AE}">
   <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
@@ -1701,8 +1701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77410A73-11E5-46DB-9102-8D255C550964}">
   <dimension ref="B2:Q13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
